--- a/dist/contatos_atualizado.xlsx
+++ b/dist/contatos_atualizado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,60 +444,888 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5581945444456</t>
+          <t>5581985782400</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>higor luna</t>
+          <t>Junior Sena</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5564349431232</t>
+          <t>5581985782400</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>roberto almeida</t>
+          <t>Junior Sena</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5554453453423</t>
+          <t>5581996402518</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pedro scooby</t>
+          <t>igor rocha</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5524234233424</t>
+          <t>5581984851130</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gabriel medina</t>
+          <t>Humberto Monteiro</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5523234243434</t>
+          <t>5587996630693</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>italo ferreira</t>
+          <t>John Brito</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>558193858693</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Halisson Maciel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5581997510869</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fábio Cunha</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5581988668638</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flavio NUNES da Costa</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5581995445435</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Leandro Monteiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5581997265270</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nen Do almoço</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5581997265270</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nen Do almoço</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5581991980583</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fernando Freitas</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5585986046205</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Arnaldo Almeida</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5581997110338</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fabio Goveia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5581987215659</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Andre Luiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>5581997864477</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rodrigo Moura</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5581984449411</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jeferson</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5531991117978</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>wenderaon</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5581988990704</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Eduardo Pereira MIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5581982990464</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alessandra </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5581984553372</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Carlos Gabriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5581996180760</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LEONARDO JOSE DA SILVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5581999275182</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Guilherme</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5581988127959</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Carla Juliane</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5581996689251</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rafael Leonardo Lira</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>557999979007</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ricardo Barreto</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5581998040368</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Diego Fernandes Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5581991573797</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Luiz Antonio Brito</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5581995609286</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hyuri marcio</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>5581987042417</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Daniel Barros</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5587996630693</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>John Brito</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>5581999965949</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Juliana viegas</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>558195337399</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Eronildo Oliveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>5581996132700</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Marcio André Negri</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>558199926515</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Antônio Neto</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>5581996053562</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Paulo Roberto</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>5581996093531</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Taciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>5528999482384</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Dudu Carriço</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>558199703000</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>André Carvalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5581998747574</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antonio Fernandes </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>558199703000</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>André Carvalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5581996132700</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Marcio André Negri</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5581987341853</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Adalto BatistA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5581996805147</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Luiz Antonio</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5581992957534</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Felipe Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5581987373451</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Anderson Muniz</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>5581999620727</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Diogo Moraes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5581984588040</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lindemberg henrique dos santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>5581985711040</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>João Lucas</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>5581982816268</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Weverson Nascimento</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>5581991081366</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Leo Regis Lira</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>5581981602057</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>André Matheus</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>5581998280013</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Igor Barros</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>5583998623462</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Carlos Assis</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>5581979054306</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Higor Teodoro</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>5581984449411</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Jeferson</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>5581981689897</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Jobson</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>5581986829593</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Simone assis</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>5581996805147</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Luiz Antonio</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>5581995914710</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Marcelo Augusto</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>5581995226408</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo de assis</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>5581988838095</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ROBSON THIAGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>558184454764</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Diogo Guerra</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>5581992957534</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Felipe Chavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>5581999271237</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Gilson Benjamim</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>5577988723514</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Diegão Tatto</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>5581991979628</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>jailson souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>5581985753520</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Aldenis Alcantara da Silva Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>5581995208981</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>João Luiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>5581992803908</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Eduardo Barros</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>5581981689897</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Jobson Cliente</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>5581973172219</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Rafael de Araujo Soares</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>5581996769620</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Almir Rogerio</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>5581992360240</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Felipe Cardone</t>
         </is>
       </c>
     </row>
